--- a/Przykładowe testy.xlsx
+++ b/Przykładowe testy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\Desktop\TESTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566A0C22-0EE3-4613-BB54-B1C5BDAC6184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1081896-B5F1-414F-8B01-6705CE6AA83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{54F2D9EB-0BE2-4FC2-AA8B-A6C3F365FA62}"/>
   </bookViews>
@@ -294,8 +294,229 @@
     <t>1.Użytkownik posiada zarejestrowane konto na stronie https://www.fcbarca.com/</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.Wchodzimy na stronę https://www.fcbarca.com/ 2.Klikamy w przycisk </t>
+    <t>Po wpisaniu prawidłowych danych w formularzu do logowania , zostajemy przekierowani na stronę główną https://www.fcbarca.com jako zalogowany użytkownik</t>
+  </si>
+  <si>
+    <t>Logowanie do konta z niepoprawnymi danymi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Po wpisaniu nieprawidłowych danych w formularzu do logowania ,  pojawia się komunikat walidacyjny </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Błędna nazwa użytkownika lub hasło"</t>
+    </r>
+  </si>
+  <si>
+    <t>Dodawanie i edytowanie  komentarzy pod postem</t>
+  </si>
+  <si>
+    <t>Dodawanie komentarza po postem</t>
+  </si>
+  <si>
+    <t>Po wpisaniu nowego posta ,pojawi się  na nowej stronie jako pierwszy</t>
+  </si>
+  <si>
+    <t>Po wpisaniu nowego posta, pojawia się  na nowej stronie jako pierwszy</t>
+  </si>
+  <si>
+    <t>Edytowanie/usuwanie/komentowanie utworzonego posta</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Po wciśnieciu przycisku </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edytuj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jesteśmy w stanie edytować post                                         2.Po wciśnieciu przycisku </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Odpowiedź</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jesteśmy w stanie odpwiedzieć na własny post                                                                      3.Po wciśnieciu przycisku </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Usuń</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jesteśmy w stanie usunąć nasz własny post                             </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Po wciśnieciu przycisku </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edytuj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jesteśmy w stanie edytować post                                         2.Po wciśnieciuprzycisku </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Odpowiedź</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jesteśmy w stanie odpwiedzieć na własny post                                                                      3.Po wciśnieciu przycisku </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Usuń</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jesteśmy w stanie usunąć nasz własny post                             </t>
+    </r>
+  </si>
+  <si>
+    <t>Wyszukiwarka https://allegro.pl/</t>
+  </si>
+  <si>
+    <t>Wyszukanie przedmiotu np.komputera na stronie</t>
+  </si>
+  <si>
+    <t>1.Użytkownik ma połączenie z internetem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Wchodzimy na stronę https://allegro.pl/                                2.W polu wyszukiwarki wpisujemy 'komputer' i wciskamy Enter                                                                                                  </t>
+  </si>
+  <si>
+    <t>Po wpisaniu słowa 'komputer' w wyszukiwarce ,strona nas powinna przekierować do szukanej rzeczy</t>
+  </si>
+  <si>
+    <t>Po wpisaniu słowa 'komputer' w wyszukiwarce ,strona  przenosi nas do szukanej rzeczy</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Wyszukanie przedmiotu niezwiązanego z kategorią</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Wchodzimy na stronę https://allegro.pl/                                2.W polu wyszukiwarki wpisujemy 'komputer' i wybieramy kategorię Moda                                                                                                  </t>
+  </si>
+  <si>
+    <t>Po wpisaniu słowa 'komputer' w  wyszukiwarce w kategorii Moda nie powinny pojawić się rzeczynie związane z tematyką.</t>
+  </si>
+  <si>
+    <t>Po wpisaniu słowa 'komputer' w  wyszukiwarce w kategorii Moda pojawiąją się proponowane przemioty nie związane z szukanym słowem..</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Wchodzimy na stronę https://www.fcbarca.com/         2.Klikamy w przycisk </t>
     </r>
     <r>
       <rPr>
@@ -380,14 +601,8 @@
     </r>
   </si>
   <si>
-    <t>Po wpisaniu prawidłowych danych w formularzu do logowania , zostajemy przekierowani na stronę główną https://www.fcbarca.com jako zalogowany użytkownik</t>
-  </si>
-  <si>
-    <t>Logowanie do konta z niepoprawnymi danymi</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Wchodzimy na stronę https://www.fcbarca.com/ 2.Klikamy w przycisk </t>
+    <r>
+      <t xml:space="preserve">1.Wchodzimy na stronę https://www.fcbarca.com/        2.Klikamy w przycisk </t>
     </r>
     <r>
       <rPr>
@@ -473,29 +688,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Po wpisaniu nieprawidłowych danych w formularzu do logowania ,  pojawia się komunikat walidacyjny </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Błędna nazwa użytkownika lub hasło"</t>
-    </r>
-  </si>
-  <si>
-    <t>Dodawanie i edytowanie  komentarzy pod postem</t>
-  </si>
-  <si>
-    <t>Dodawanie komentarza po postem</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Wchodzimy na stronę https://www.fcbarca.com/ 2.Klikamy w przycisk </t>
+      <t xml:space="preserve">1.Wchodzimy na stronę https://www.fcbarca.com/       2.Klikamy w przycisk </t>
     </r>
     <r>
       <rPr>
@@ -545,17 +738,8 @@
     </r>
   </si>
   <si>
-    <t>Po wpisaniu nowego posta ,pojawi się  na nowej stronie jako pierwszy</t>
-  </si>
-  <si>
-    <t>Po wpisaniu nowego posta, pojawia się  na nowej stronie jako pierwszy</t>
-  </si>
-  <si>
-    <t>Edytowanie/usuwanie/komentowanie utworzonego posta</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Wchodzimy na stronę https://www.fcbarca.com/ 2.Klikamy w przycisk </t>
+    <r>
+      <t xml:space="preserve">1.Wchodzimy na stronę https://www.fcbarca.com/       2.Klikamy w przycisk </t>
     </r>
     <r>
       <rPr>
@@ -626,190 +810,6 @@
       </rPr>
       <t xml:space="preserve"> naszego posta</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Po wciśnieciu przycisku </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Edytuj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> jesteśmy w stanie edytować post                                         2.Po wciśnieciu przycisku </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Odpowiedź</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> jesteśmy w stanie odpwiedzieć na własny post                                                                      3.Po wciśnieciu przycisku </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Usuń</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> jesteśmy w stanie usunąć nasz własny post                             </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Po wciśnieciu przycisku </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Edytuj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> jesteśmy w stanie edytować post                                         2.Po wciśnieciuprzycisku </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Odpowiedź</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> jesteśmy w stanie odpwiedzieć na własny post                                                                      3.Po wciśnieciu przycisku </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Usuń</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> jesteśmy w stanie usunąć nasz własny post                             </t>
-    </r>
-  </si>
-  <si>
-    <t>Wyszukiwarka https://allegro.pl/</t>
-  </si>
-  <si>
-    <t>Wyszukanie przedmiotu np.komputera na stronie</t>
-  </si>
-  <si>
-    <t>1.Użytkownik ma połączenie z internetem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Wchodzimy na stronę https://allegro.pl/                                2.W polu wyszukiwarki wpisujemy 'komputer' i wciskamy Enter                                                                                                  </t>
-  </si>
-  <si>
-    <t>Po wpisaniu słowa 'komputer' w wyszukiwarce ,strona nas powinna przekierować do szukanej rzeczy</t>
-  </si>
-  <si>
-    <t>Po wpisaniu słowa 'komputer' w wyszukiwarce ,strona  przenosi nas do szukanej rzeczy</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Wyszukanie przedmiotu niezwiązanego z kategorią</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Wchodzimy na stronę https://allegro.pl/                                2.W polu wyszukiwarki wpisujemy 'komputer' i wybieramy kategorię Moda                                                                                                  </t>
-  </si>
-  <si>
-    <t>Po wpisaniu słowa 'komputer' w  wyszukiwarce w kategorii Moda nie powinny pojawić się rzeczynie związane z tematyką.</t>
-  </si>
-  <si>
-    <t>Po wpisaniu słowa 'komputer' w  wyszukiwarce w kategorii Moda pojawiąją się proponowane przemioty nie związane z szukanym słowem..</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -897,7 +897,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -994,15 +994,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1051,6 +1094,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1065,27 +1145,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1403,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659B49FE-5695-417E-91BF-B95C4CDC6C47}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1419,342 +1478,343 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="28">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="20"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="20"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="20"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16">
+      <c r="A6" s="30"/>
+      <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="20"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="20"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="20"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="16">
+      <c r="A10" s="30"/>
+      <c r="B10" s="28">
         <v>3</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="20"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="20"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="8">
+      <c r="A15" s="28"/>
+      <c r="B15" s="7">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="15">
-        <v>1</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="5">
+      <c r="A17" s="30"/>
+      <c r="B17" s="16">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="D18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="E18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>11</v>
+      <c r="F18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="24">
-        <v>1</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="25" t="s">
+    <row r="19" spans="1:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="20">
+        <v>2</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="D19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="F19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="G19" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27">
-        <v>2</v>
-      </c>
-      <c r="C19" s="28" t="s">
+      <c r="H19" s="27" t="s">
         <v>47</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
